--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value325.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value325.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8347117648909159</v>
+        <v>1.107869505882263</v>
       </c>
       <c r="B1">
-        <v>1.613638936062199</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>5.218584652513766</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.052472051990625</v>
+        <v>1.604535579681396</v>
       </c>
       <c r="E1">
-        <v>1.028184256392598</v>
+        <v>1.128990054130554</v>
       </c>
     </row>
   </sheetData>
